--- a/letterlang test/ref/letterorderth_full.xlsx
+++ b/letterlang test/ref/letterorderth_full.xlsx
@@ -480,32 +480,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>y</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
@@ -514,32 +514,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ภ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
     </row>
@@ -548,32 +548,32 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>y</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
@@ -582,32 +582,32 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>อ</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
@@ -616,32 +616,32 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ξ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
@@ -650,32 +650,32 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ฌ</t>
+          <t>ซ</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>η</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>ฅ</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ห</t>
+          <t>ត</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
     </row>
@@ -718,13 +718,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -738,12 +738,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
     </row>
@@ -752,32 +752,32 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>ម</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
     </row>
@@ -786,32 +786,32 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>พ</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
     </row>
@@ -820,32 +820,32 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ฮ</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Σ</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
@@ -854,32 +854,32 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -891,29 +891,29 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ง</t>
+          <t>o</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -925,29 +925,29 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ท</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
@@ -959,29 +959,29 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ภ</t>
+          <t>ត</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ភ</t>
+          <t>ฅ</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
     </row>
@@ -1000,22 +1000,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ξ</t>
+          <t>η</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
@@ -1024,32 +1024,32 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ฏ</t>
+          <t>ญ</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
     </row>
@@ -1058,32 +1058,32 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ฌ</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>η</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
@@ -1092,32 +1092,32 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>ฬ</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -1126,32 +1126,32 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>η</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
@@ -1160,32 +1160,32 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>η</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
     </row>
@@ -1197,29 +1197,29 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
@@ -1228,32 +1228,32 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>พ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
@@ -1262,32 +1262,32 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>6</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>v</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
@@ -1296,32 +1296,32 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ฮ</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Σ</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
     </row>
@@ -1330,32 +1330,32 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ท</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>η</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
     </row>
@@ -1364,32 +1364,32 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ភ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ภ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
@@ -1398,32 +1398,32 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
@@ -1435,29 +1435,29 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>ฉ</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>letter/lettth061.png</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>គ</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>letter/lettkh034.png</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>ฉ</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -1466,32 +1466,32 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>q</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -1503,29 +1503,29 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ซ</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>σ</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
@@ -1568,32 +1568,32 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ภ</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ភ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -1612,22 +1612,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
@@ -1636,32 +1636,32 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>ฏ</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ห</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ฏ</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>π</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
     </row>
@@ -1704,32 +1704,32 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ท</t>
+          <t>v</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1748,22 +1748,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ห</t>
+          <t>ฏ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
@@ -1772,32 +1772,32 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>q</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
@@ -1809,29 +1809,29 @@
         <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>ญ</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
@@ -1840,32 +1840,32 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>อ</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>พ</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ภ</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
     </row>
@@ -1911,29 +1911,29 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ง</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
     </row>
@@ -1945,29 +1945,29 @@
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>ภ</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>บ</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -1976,32 +1976,32 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ศ</t>
+          <t>ท</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
@@ -2044,32 +2044,32 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
@@ -2084,26 +2084,26 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ง</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>q</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
@@ -2118,26 +2118,26 @@
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>ម</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
@@ -2149,29 +2149,29 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>ម</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
     </row>
@@ -2186,26 +2186,26 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>σ</t>
+          <t>π</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
@@ -2214,32 +2214,32 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>8</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ศ</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
@@ -2248,32 +2248,32 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>บ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
     </row>
@@ -2285,29 +2285,29 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ป</t>
+          <t>y</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
     </row>
@@ -2316,32 +2316,32 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>η</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ฌ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
@@ -2350,32 +2350,32 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ศ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
@@ -2384,32 +2384,32 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>π</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
     </row>
@@ -2421,29 +2421,29 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>ง</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
     </row>
@@ -2455,29 +2455,29 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>ง</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ศ</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
     </row>
@@ -2486,32 +2486,32 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
@@ -2557,29 +2557,29 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Ξ</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
@@ -2588,32 +2588,32 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ท</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
@@ -2622,32 +2622,32 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
@@ -2666,22 +2666,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>σ</t>
+          <t>ត</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ฅ</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
     </row>
@@ -2693,29 +2693,29 @@
         <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>อ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
@@ -2724,32 +2724,32 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>อ</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>ง</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
     </row>
@@ -2764,26 +2764,26 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>π</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>บ</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
@@ -2795,29 +2795,29 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>พ</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ท</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
     </row>
@@ -2826,32 +2826,32 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -2866,26 +2866,26 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
@@ -2894,32 +2894,32 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>y</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
     </row>
@@ -2928,32 +2928,32 @@
         <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>ญ</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -2972,22 +2972,22 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>ซ</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
@@ -2996,32 +2996,32 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>ญ</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
     </row>
@@ -3030,32 +3030,32 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>v</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
@@ -3074,22 +3074,22 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ភ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ภ</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -3098,32 +3098,32 @@
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>η</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ฌ</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
@@ -3135,29 +3135,29 @@
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>ซ</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
     </row>
@@ -3172,26 +3172,26 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
@@ -3206,26 +3206,26 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Ξ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
@@ -3237,29 +3237,29 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ฅ</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ត</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
     </row>
@@ -3271,29 +3271,29 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>q</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -3302,32 +3302,32 @@
         <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ง</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
     </row>
@@ -3336,32 +3336,32 @@
         <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ฬ</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
     </row>
@@ -3370,32 +3370,32 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>v</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
@@ -3404,32 +3404,32 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>σ</t>
+          <t>ฏ</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
     </row>
@@ -3438,32 +3438,32 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ฏ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -3475,29 +3475,29 @@
         <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Σ</t>
+          <t>ฬ</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ฮ</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -3506,32 +3506,32 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ป</t>
+          <t>ท</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
@@ -3540,32 +3540,32 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
         <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>ម</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
@@ -3574,32 +3574,32 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>4</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>บ</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>ง</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
     </row>
@@ -3608,32 +3608,32 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Σ</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ฮ</t>
+          <t>ท</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
     </row>
@@ -3642,32 +3642,32 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>ภ</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>ป</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -3679,29 +3679,29 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -3713,29 +3713,29 @@
         <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ห</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>ฬ</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
     </row>
